--- a/predictions/Прогнозы_ETS_EA4dt.xlsx
+++ b/predictions/Прогнозы_ETS_EA4dt.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M77"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,40 +446,40 @@
         </is>
       </c>
       <c r="B1" s="2" t="n">
-        <v>45292</v>
+        <v>45323</v>
       </c>
       <c r="C1" s="2" t="n">
-        <v>45323</v>
+        <v>45352</v>
       </c>
       <c r="D1" s="2" t="n">
-        <v>45352</v>
+        <v>45383</v>
       </c>
       <c r="E1" s="2" t="n">
-        <v>45383</v>
+        <v>45413</v>
       </c>
       <c r="F1" s="2" t="n">
-        <v>45413</v>
+        <v>45444</v>
       </c>
       <c r="G1" s="2" t="n">
-        <v>45444</v>
+        <v>45474</v>
       </c>
       <c r="H1" s="2" t="n">
-        <v>45474</v>
+        <v>45505</v>
       </c>
       <c r="I1" s="2" t="n">
-        <v>45505</v>
+        <v>45536</v>
       </c>
       <c r="J1" s="2" t="n">
-        <v>45536</v>
+        <v>45566</v>
       </c>
       <c r="K1" s="2" t="n">
-        <v>45566</v>
+        <v>45597</v>
       </c>
       <c r="L1" s="2" t="n">
-        <v>45597</v>
+        <v>45627</v>
       </c>
       <c r="M1" s="2" t="n">
-        <v>45627</v>
+        <v>45658</v>
       </c>
     </row>
     <row r="2">
@@ -489,40 +489,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16815697.04202046</v>
+        <v>18806098.30852064</v>
       </c>
       <c r="C2" t="n">
-        <v>18734028.0733838</v>
+        <v>18024970.90695163</v>
       </c>
       <c r="D2" t="n">
-        <v>18784953.88523375</v>
+        <v>17820323.80606496</v>
       </c>
       <c r="E2" t="n">
-        <v>19275647.94587518</v>
+        <v>14636726.9028485</v>
       </c>
       <c r="F2" t="n">
-        <v>15863399.18390997</v>
+        <v>17019824.67029657</v>
       </c>
       <c r="G2" t="n">
-        <v>17819458.0792867</v>
+        <v>16292645.94711638</v>
       </c>
       <c r="H2" t="n">
-        <v>17906617.06343055</v>
+        <v>16140318.17744707</v>
       </c>
       <c r="I2" t="n">
-        <v>18432108.82091518</v>
+        <v>13007460.4674932</v>
       </c>
       <c r="J2" t="n">
-        <v>15053279.15059805</v>
+        <v>15439765.01325887</v>
       </c>
       <c r="K2" t="n">
-        <v>17041433.14961385</v>
+        <v>14760306.93514034</v>
       </c>
       <c r="L2" t="n">
-        <v>17159415.70276579</v>
+        <v>14654258.56117545</v>
       </c>
       <c r="M2" t="n">
-        <v>17714509.86992266</v>
+        <v>11566282.52589297</v>
       </c>
     </row>
     <row r="3">
@@ -532,3222 +532,2104 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15315078.43133697</v>
+        <v>13746702.60829947</v>
       </c>
       <c r="C3" t="n">
-        <v>16122680.38080918</v>
+        <v>13786074.16385835</v>
       </c>
       <c r="D3" t="n">
-        <v>16915749.46503273</v>
+        <v>13819515.78490811</v>
       </c>
       <c r="E3" t="n">
-        <v>17690944.92927059</v>
+        <v>13850006.14311914</v>
       </c>
       <c r="F3" t="n">
-        <v>18451964.08520272</v>
+        <v>13877531.87443698</v>
       </c>
       <c r="G3" t="n">
-        <v>19196784.36464738</v>
+        <v>13903245.87619625</v>
       </c>
       <c r="H3" t="n">
-        <v>19928328.2919989</v>
+        <v>13924455.68541756</v>
       </c>
       <c r="I3" t="n">
-        <v>20643229.96464971</v>
+        <v>13943991.13744248</v>
       </c>
       <c r="J3" t="n">
-        <v>21345162.04971905</v>
+        <v>13961705.56923826</v>
       </c>
       <c r="K3" t="n">
-        <v>22032077.82770101</v>
+        <v>13978632.49453367</v>
       </c>
       <c r="L3" t="n">
-        <v>22706876.15503063</v>
+        <v>13991972.52945974</v>
       </c>
       <c r="M3" t="n">
-        <v>23366167.93483195</v>
+        <v>14004459.75017443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>ИПР Актобе (Kz)</t>
+          <t>Отдел Ковригин  (Kz)</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25180098.83207547</v>
+        <v>62340579.98297457</v>
       </c>
       <c r="C4" t="n">
-        <v>30028310.94098358</v>
+        <v>70254950.52402827</v>
       </c>
       <c r="D4" t="n">
-        <v>30688916.36209645</v>
+        <v>79826667.62900563</v>
       </c>
       <c r="E4" t="n">
-        <v>34867254.3126478</v>
+        <v>88115218.21052618</v>
       </c>
       <c r="F4" t="n">
-        <v>35901002.94840775</v>
+        <v>96208704.05555947</v>
       </c>
       <c r="G4" t="n">
-        <v>40520203.66556151</v>
+        <v>103445697.9571799</v>
       </c>
       <c r="H4" t="n">
-        <v>40956689.65337653</v>
+        <v>112353586.2386781</v>
       </c>
       <c r="I4" t="n">
-        <v>44915695.63097682</v>
+        <v>119991584.8506913</v>
       </c>
       <c r="J4" t="n">
-        <v>45734797.48822797</v>
+        <v>127447530.0375593</v>
       </c>
       <c r="K4" t="n">
-        <v>50143936.53993321</v>
+        <v>134059734.3606904</v>
       </c>
       <c r="L4" t="n">
-        <v>50374848.03183659</v>
+        <v>142355329.1164517</v>
       </c>
       <c r="M4" t="n">
-        <v>54132670.83173003</v>
+        <v>149393280.3292013</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>ИПР Павлодар (Kz)</t>
+          <t>Отдел Концевой</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22392933.90341514</v>
+        <v>29798807.83325964</v>
       </c>
       <c r="C5" t="n">
-        <v>21825121.88843193</v>
+        <v>31497414.31279147</v>
       </c>
       <c r="D5" t="n">
-        <v>23452529.59643632</v>
+        <v>39167066.1448057</v>
       </c>
       <c r="E5" t="n">
-        <v>29301445.25045664</v>
+        <v>26712414.98456764</v>
       </c>
       <c r="F5" t="n">
-        <v>31827795.11857834</v>
+        <v>34153123.37200082</v>
       </c>
       <c r="G5" t="n">
-        <v>31071221.677368</v>
+        <v>35764642.53723918</v>
       </c>
       <c r="H5" t="n">
-        <v>32513644.47214516</v>
+        <v>43348948.82131642</v>
       </c>
       <c r="I5" t="n">
-        <v>38181276.1699799</v>
+        <v>30810659.0437693</v>
       </c>
       <c r="J5" t="n">
-        <v>40529968.99463272</v>
+        <v>38169401.6055154</v>
       </c>
       <c r="K5" t="n">
-        <v>39599292.85973563</v>
+        <v>39700594.28047069</v>
       </c>
       <c r="L5" t="n">
-        <v>40871096.19942604</v>
+        <v>47206180.62258301</v>
       </c>
       <c r="M5" t="n">
-        <v>46371521.99229945</v>
+        <v>34590745.32005247</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>ИПР Апатиты</t>
+          <t>Отдел Мараев (АлРоса)</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>11032745.71073567</v>
+        <v>792496.6395340229</v>
       </c>
       <c r="C6" t="n">
-        <v>13190628.14996623</v>
+        <v>1408494.791653904</v>
       </c>
       <c r="D6" t="n">
-        <v>13281985.32988635</v>
+        <v>513585.5209855654</v>
       </c>
       <c r="E6" t="n">
-        <v>15726842.29496138</v>
+        <v>970205.9040754837</v>
       </c>
       <c r="F6" t="n">
-        <v>12873197.25953032</v>
+        <v>696260.7639096652</v>
       </c>
       <c r="G6" t="n">
-        <v>14994267.30281864</v>
+        <v>1314183.768920661</v>
       </c>
       <c r="H6" t="n">
-        <v>15049548.40202083</v>
+        <v>421160.8513778521</v>
       </c>
       <c r="I6" t="n">
-        <v>17459050.87395155</v>
+        <v>879629.8578771855</v>
       </c>
       <c r="J6" t="n">
-        <v>14570758.49987901</v>
+        <v>607496.3660520656</v>
       </c>
       <c r="K6" t="n">
-        <v>16657874.2146457</v>
+        <v>1227194.783888433</v>
       </c>
       <c r="L6" t="n">
-        <v>16679880.13397666</v>
+        <v>335911.7684169468</v>
       </c>
       <c r="M6" t="n">
-        <v>19056772.99047183</v>
+        <v>796085.8764985913</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ИПР Балаково</t>
+          <t>Отдел Мищенко (МетИнв)</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2194282.79157872</v>
+        <v>13141054.32002195</v>
       </c>
       <c r="C7" t="n">
-        <v>3335417.705066147</v>
+        <v>13493275.87900726</v>
       </c>
       <c r="D7" t="n">
-        <v>3261091.55862078</v>
+        <v>13838856.39813724</v>
       </c>
       <c r="E7" t="n">
-        <v>3491891.291788421</v>
+        <v>14176794.74129008</v>
       </c>
       <c r="F7" t="n">
-        <v>2211572.353043722</v>
+        <v>14508950.33323644</v>
       </c>
       <c r="G7" t="n">
-        <v>3349249.623912184</v>
+        <v>14833812.28703755</v>
       </c>
       <c r="H7" t="n">
-        <v>3272157.309441043</v>
+        <v>15152580.42678749</v>
       </c>
       <c r="I7" t="n">
-        <v>3500744.065042744</v>
+        <v>15464242.67117431</v>
       </c>
       <c r="J7" t="n">
-        <v>2218654.709728363</v>
+        <v>15770647.71869582</v>
       </c>
       <c r="K7" t="n">
-        <v>3354915.619726996</v>
+        <v>16070274.17067908</v>
       </c>
       <c r="L7" t="n">
-        <v>3276690.194468296</v>
+        <v>16364311.54973161</v>
       </c>
       <c r="M7" t="n">
-        <v>3504370.443766247</v>
+        <v>16651737.67909734</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>ИПР Волхов ФСА</t>
+          <t>Отдел Попов</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1030831.173635944</v>
+        <v>18951811.34623312</v>
       </c>
       <c r="C8" t="n">
-        <v>1388173.190793204</v>
+        <v>19828767.75844949</v>
       </c>
       <c r="D8" t="n">
-        <v>1744304.498435083</v>
+        <v>19802500.75312057</v>
       </c>
       <c r="E8" t="n">
-        <v>1407386.199170789</v>
+        <v>17652387.77188832</v>
       </c>
       <c r="F8" t="n">
-        <v>1075283.204360841</v>
+        <v>19010436.45519148</v>
       </c>
       <c r="G8" t="n">
-        <v>1431736.180847917</v>
+        <v>19883959.27926676</v>
       </c>
       <c r="H8" t="n">
-        <v>1786996.228634129</v>
+        <v>19854459.78610568</v>
       </c>
       <c r="I8" t="n">
-        <v>1449224.094712373</v>
+        <v>17701303.63919494</v>
       </c>
       <c r="J8" t="n">
-        <v>1116284.341939182</v>
+        <v>19056487.39064758</v>
       </c>
       <c r="K8" t="n">
-        <v>1471917.295623328</v>
+        <v>19927313.07780188</v>
       </c>
       <c r="L8" t="n">
-        <v>1826373.721063697</v>
+        <v>19895274.41514217</v>
       </c>
       <c r="M8" t="n">
-        <v>1487814.03724402</v>
+        <v>17739727.81423087</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ИПР Еврохим УКК</t>
+          <t>Отдел Филиппов</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11763297.22903767</v>
+        <v>31330486.02676098</v>
       </c>
       <c r="C9" t="n">
-        <v>14277510.82151829</v>
+        <v>31634694.63033051</v>
       </c>
       <c r="D9" t="n">
-        <v>16577849.09251839</v>
+        <v>33260715.64608902</v>
       </c>
       <c r="E9" t="n">
-        <v>18682962.17803349</v>
+        <v>27081770.96817652</v>
       </c>
       <c r="F9" t="n">
-        <v>20608958.16818105</v>
+        <v>32029085.73804679</v>
       </c>
       <c r="G9" t="n">
-        <v>22371671.65166132</v>
+        <v>32305873.38092944</v>
       </c>
       <c r="H9" t="n">
-        <v>23984354.94832233</v>
+        <v>33905549.74489851</v>
       </c>
       <c r="I9" t="n">
-        <v>25460234.10816003</v>
+        <v>27701294.47754922</v>
       </c>
       <c r="J9" t="n">
-        <v>26810453.94893278</v>
+        <v>32624292.13202326</v>
       </c>
       <c r="K9" t="n">
-        <v>28046307.45131462</v>
+        <v>32877717.13838298</v>
       </c>
       <c r="L9" t="n">
-        <v>29176891.16815726</v>
+        <v>34454947.88014686</v>
       </c>
       <c r="M9" t="n">
-        <v>30211628.44362469</v>
+        <v>28229128.01088791</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец ФСА</t>
+          <t>Отдел Шугай (Русал)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6720220.926414333</v>
+        <v>15146791.93349807</v>
       </c>
       <c r="C10" t="n">
-        <v>6730957.903976598</v>
+        <v>15152110.08172079</v>
       </c>
       <c r="D10" t="n">
-        <v>8539201.847569231</v>
+        <v>15154616.20962162</v>
       </c>
       <c r="E10" t="n">
-        <v>13677763.1364416</v>
+        <v>15156905.33553052</v>
       </c>
       <c r="F10" t="n">
-        <v>8827346.209801596</v>
+        <v>15161699.60586167</v>
       </c>
       <c r="G10" t="n">
-        <v>8795938.895693175</v>
+        <v>15166701.79927297</v>
       </c>
       <c r="H10" t="n">
-        <v>10562881.46917011</v>
+        <v>15168898.66874263</v>
       </c>
       <c r="I10" t="n">
-        <v>15660967.45033622</v>
+        <v>15170885.09067682</v>
       </c>
       <c r="J10" t="n">
-        <v>10770884.756451</v>
+        <v>15175383.07257385</v>
       </c>
       <c r="K10" t="n">
-        <v>10700605.02406305</v>
+        <v>15180095.25711998</v>
       </c>
       <c r="L10" t="n">
-        <v>12429452.66057437</v>
+        <v>15182008.26420354</v>
       </c>
       <c r="M10" t="n">
-        <v>17490205.63580351</v>
+        <v>15183716.83996157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>ИПР Алроса</t>
+          <t>Отдел Ясиновер (УГМК)</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1377208.990846055</v>
+        <v>22065752.51330388</v>
       </c>
       <c r="C11" t="n">
-        <v>201846.6430313252</v>
+        <v>21195726.64182203</v>
       </c>
       <c r="D11" t="n">
-        <v>867920.5570068972</v>
+        <v>21749091.82535951</v>
       </c>
       <c r="E11" t="n">
-        <v>345081.5839194359</v>
+        <v>19937713.70515752</v>
       </c>
       <c r="F11" t="n">
-        <v>1376456.089729961</v>
+        <v>24135297.72804349</v>
       </c>
       <c r="G11" t="n">
-        <v>201234.6317974723</v>
+        <v>23223875.27397977</v>
       </c>
       <c r="H11" t="n">
-        <v>867423.0710258626</v>
+        <v>23736671.92016834</v>
       </c>
       <c r="I11" t="n">
-        <v>344677.1921572653</v>
+        <v>21885536.7446738</v>
       </c>
       <c r="J11" t="n">
-        <v>1376127.371527749</v>
+        <v>26044158.96245595</v>
       </c>
       <c r="K11" t="n">
-        <v>200967.4264125616</v>
+        <v>25094554.04629143</v>
       </c>
       <c r="L11" t="n">
-        <v>867205.8676058971</v>
+        <v>25569931.98438384</v>
       </c>
       <c r="M11" t="n">
-        <v>344500.6338679913</v>
+        <v>23682126.57762214</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>ИПР ММК</t>
+          <t>Менеджер ОРСТП 1</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>499103.6775722984</v>
+        <v>44706206.8307621</v>
       </c>
       <c r="C12" t="n">
-        <v>384738.7225093832</v>
+        <v>47655566.62126411</v>
       </c>
       <c r="D12" t="n">
-        <v>754956.1504712377</v>
+        <v>39008197.78379397</v>
       </c>
       <c r="E12" t="n">
-        <v>745092.2870889324</v>
+        <v>39497009.52228826</v>
       </c>
       <c r="F12" t="n">
-        <v>499209.9831711625</v>
+        <v>44711371.96566227</v>
       </c>
       <c r="G12" t="n">
-        <v>384829.5881756457</v>
+        <v>47659981.16927655</v>
       </c>
       <c r="H12" t="n">
-        <v>755033.8187163121</v>
+        <v>39011970.81867705</v>
       </c>
       <c r="I12" t="n">
-        <v>745158.6747196079</v>
+        <v>39500234.26742385</v>
       </c>
       <c r="J12" t="n">
-        <v>499266.7285952737</v>
+        <v>44714128.09740018</v>
       </c>
       <c r="K12" t="n">
-        <v>384878.0918370175</v>
+        <v>47662336.78556166</v>
       </c>
       <c r="L12" t="n">
-        <v>755075.2776568929</v>
+        <v>39013984.12159953</v>
       </c>
       <c r="M12" t="n">
-        <v>745194.1121217643</v>
+        <v>39501955.00126461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>ИПР Лебединский ГОК</t>
+          <t>Менеджер ОРСТП 2</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3239484.980534138</v>
+        <v>37385163.2880653</v>
       </c>
       <c r="C13" t="n">
-        <v>3582959.560616931</v>
+        <v>39175773.66312037</v>
       </c>
       <c r="D13" t="n">
-        <v>3919716.465105597</v>
+        <v>36137205.51811405</v>
       </c>
       <c r="E13" t="n">
-        <v>4249509.10564125</v>
+        <v>35042958.46964886</v>
       </c>
       <c r="F13" t="n">
-        <v>4572917.176267961</v>
+        <v>37386214.78171264</v>
       </c>
       <c r="G13" t="n">
-        <v>4889721.858359314</v>
+        <v>39176614.85803825</v>
       </c>
       <c r="H13" t="n">
-        <v>5200342.287899082</v>
+        <v>36137878.47404836</v>
       </c>
       <c r="I13" t="n">
-        <v>5504521.207565853</v>
+        <v>35043496.83439633</v>
       </c>
       <c r="J13" t="n">
-        <v>5802827.855830451</v>
+        <v>37386645.47351061</v>
       </c>
       <c r="K13" t="n">
-        <v>6095033.167614517</v>
+        <v>39176959.41147665</v>
       </c>
       <c r="L13" t="n">
-        <v>6381546.237388552</v>
+        <v>36138154.11679908</v>
       </c>
       <c r="M13" t="n">
-        <v>6662099.967157585</v>
+        <v>35043717.3485969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>ИПР Металлоинвест</t>
+          <t>ОПП Владивосток</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>24184.5543701822</v>
+        <v>1080472.182053789</v>
       </c>
       <c r="C14" t="n">
-        <v>151103.2748711816</v>
+        <v>1180510.491312106</v>
       </c>
       <c r="D14" t="n">
-        <v>107867.6768210373</v>
+        <v>1075581.778418531</v>
       </c>
       <c r="E14" t="n">
-        <v>74360.06858210583</v>
+        <v>899803.2873379749</v>
       </c>
       <c r="F14" t="n">
-        <v>23924.01192591196</v>
+        <v>1014826.187988034</v>
       </c>
       <c r="G14" t="n">
-        <v>150848.2449422803</v>
+        <v>1127992.481552804</v>
       </c>
       <c r="H14" t="n">
-        <v>107618.0427745863</v>
+        <v>1033566.39898326</v>
       </c>
       <c r="I14" t="n">
-        <v>74115.7162528873</v>
+        <v>866190.2064695193</v>
       </c>
       <c r="J14" t="n">
-        <v>23684.8295641973</v>
+        <v>987935.1014226978</v>
       </c>
       <c r="K14" t="n">
-        <v>150614.1231627239</v>
+        <v>1106479.114792572</v>
       </c>
       <c r="L14" t="n">
-        <v>107388.8745062001</v>
+        <v>1016355.3075595</v>
       </c>
       <c r="M14" t="n">
-        <v>73891.39669007418</v>
+        <v>852421.0149106877</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>ИПР Михайловский ГОК</t>
+          <t>ОПП Воронеж</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>992430.6198408331</v>
+        <v>4861238.89455591</v>
       </c>
       <c r="C15" t="n">
-        <v>954919.6558610307</v>
+        <v>5114146.931322327</v>
       </c>
       <c r="D15" t="n">
-        <v>919428.9723381731</v>
+        <v>5377972.870918628</v>
       </c>
       <c r="E15" t="n">
-        <v>1570420.24847792</v>
+        <v>5093264.433220961</v>
       </c>
       <c r="F15" t="n">
-        <v>1169137.955000266</v>
+        <v>5290427.931132177</v>
       </c>
       <c r="G15" t="n">
-        <v>1128092.504056148</v>
+        <v>5534751.941908125</v>
       </c>
       <c r="H15" t="n">
-        <v>1089138.03011414</v>
+        <v>5790165.540939086</v>
       </c>
       <c r="I15" t="n">
-        <v>1736734.798312866</v>
+        <v>5497213.014294595</v>
       </c>
       <c r="J15" t="n">
-        <v>1332125.89358935</v>
+        <v>5686297.309748987</v>
       </c>
       <c r="K15" t="n">
-        <v>1287820.370029889</v>
+        <v>5922703.706734085</v>
       </c>
       <c r="L15" t="n">
-        <v>1245671.031202319</v>
+        <v>6170358.048774514</v>
       </c>
       <c r="M15" t="n">
-        <v>1890136.837965108</v>
+        <v>5869801.454713309</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>ИПР ОЭМК</t>
+          <t>ОПП Казань+Чувашия</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1688278.229368816</v>
+        <v>8782121.858070254</v>
       </c>
       <c r="C16" t="n">
-        <v>1759768.077099118</v>
+        <v>9754468.414254762</v>
       </c>
       <c r="D16" t="n">
-        <v>1827802.611851185</v>
+        <v>9472805.18363018</v>
       </c>
       <c r="E16" t="n">
-        <v>1892930.156017703</v>
+        <v>9008679.395392844</v>
       </c>
       <c r="F16" t="n">
-        <v>1954846.917514089</v>
+        <v>8772428.251723826</v>
       </c>
       <c r="G16" t="n">
-        <v>2014180.047334156</v>
+        <v>9746708.233035035</v>
       </c>
       <c r="H16" t="n">
-        <v>2070612.264587294</v>
+        <v>9466592.798846763</v>
       </c>
       <c r="I16" t="n">
-        <v>2124666.60854139</v>
+        <v>9003706.093403565</v>
       </c>
       <c r="J16" t="n">
-        <v>2176015.157010019</v>
+        <v>8768446.892947949</v>
       </c>
       <c r="K16" t="n">
-        <v>2225262.031325126</v>
+        <v>9743520.970782228</v>
       </c>
       <c r="L16" t="n">
-        <v>2272067.971189253</v>
+        <v>9464041.247670384</v>
       </c>
       <c r="M16" t="n">
-        <v>2316935.038822163</v>
+        <v>9001663.458411748</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>ИПР Уральская Сталь</t>
+          <t>ОПП Краснодар</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6267313.141851069</v>
+        <v>5518230.436816687</v>
       </c>
       <c r="C17" t="n">
-        <v>6336380.167576113</v>
+        <v>5519193.930267963</v>
       </c>
       <c r="D17" t="n">
-        <v>6404711.871907301</v>
+        <v>7071684.962516585</v>
       </c>
       <c r="E17" t="n">
-        <v>6471795.719127025</v>
+        <v>4267529.053102993</v>
       </c>
       <c r="F17" t="n">
-        <v>6537258.619883514</v>
+        <v>5801177.026391759</v>
       </c>
       <c r="G17" t="n">
-        <v>6600912.440296237</v>
+        <v>5796481.480385421</v>
       </c>
       <c r="H17" t="n">
-        <v>6663939.490093458</v>
+        <v>7343426.656118946</v>
       </c>
       <c r="I17" t="n">
-        <v>6725825.056793378</v>
+        <v>4533835.809430852</v>
       </c>
       <c r="J17" t="n">
-        <v>6786193.917930594</v>
+        <v>6062157.546258694</v>
       </c>
       <c r="K17" t="n">
-        <v>6844855.849286185</v>
+        <v>6052242.290547377</v>
       </c>
       <c r="L17" t="n">
-        <v>6902991.112167489</v>
+        <v>7594072.152756214</v>
       </c>
       <c r="M17" t="n">
-        <v>6960082.986748681</v>
+        <v>4779468.300760392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>ИПР Воркута</t>
+          <t>ОПП Красноярск</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>414560.9213173502</v>
+        <v>3137836.938093382</v>
       </c>
       <c r="C18" t="n">
-        <v>330302.025948418</v>
+        <v>3702069.155446424</v>
       </c>
       <c r="D18" t="n">
-        <v>409960.3569010033</v>
+        <v>3147909.043947061</v>
       </c>
       <c r="E18" t="n">
-        <v>459415.7435193365</v>
+        <v>3501503.308221072</v>
       </c>
       <c r="F18" t="n">
-        <v>82251.62329563573</v>
+        <v>3169091.623652544</v>
       </c>
       <c r="G18" t="n">
-        <v>13219.96828047356</v>
+        <v>3731598.750014009</v>
       </c>
       <c r="H18" t="n">
-        <v>107407.7894782047</v>
+        <v>3175808.763292352</v>
       </c>
       <c r="I18" t="n">
-        <v>170726.8888822576</v>
+        <v>3527863.112713629</v>
       </c>
       <c r="J18" t="n">
-        <v>-193208.7884324333</v>
+        <v>3193996.508332077</v>
       </c>
       <c r="K18" t="n">
-        <v>-249618.1607660628</v>
+        <v>3755129.018649954</v>
       </c>
       <c r="L18" t="n">
-        <v>-143386.4413417304</v>
+        <v>3198040.287316823</v>
       </c>
       <c r="M18" t="n">
-        <v>-68575.32514859422</v>
+        <v>3548867.575862665</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>ИПР Колпино СС</t>
+          <t>ОПП МСК Авто ( Юг)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>20113.20665025893</v>
+        <v>5586242.100280177</v>
       </c>
       <c r="C19" t="n">
-        <v>-6562.079475741844</v>
+        <v>6045165.238712798</v>
       </c>
       <c r="D19" t="n">
-        <v>11506.76625173866</v>
+        <v>5540324.399509323</v>
       </c>
       <c r="E19" t="n">
-        <v>-3096.700483404809</v>
+        <v>4556625.159891949</v>
       </c>
       <c r="F19" t="n">
-        <v>12377.26313750552</v>
+        <v>5587010.883864305</v>
       </c>
       <c r="G19" t="n">
-        <v>-13992.1313113177</v>
+        <v>6045780.265580101</v>
       </c>
       <c r="H19" t="n">
-        <v>4370.510643313846</v>
+        <v>5540816.421003166</v>
       </c>
       <c r="I19" t="n">
-        <v>-9950.777041112658</v>
+        <v>4557018.777087023</v>
       </c>
       <c r="J19" t="n">
-        <v>5794.207815964168</v>
+        <v>5587325.777620365</v>
       </c>
       <c r="K19" t="n">
-        <v>-20314.8820132688</v>
+        <v>6046032.180584949</v>
       </c>
       <c r="L19" t="n">
-        <v>-1702.228303328164</v>
+        <v>5541017.953007043</v>
       </c>
       <c r="M19" t="n">
-        <v>-15783.39010028052</v>
+        <v>4557180.002690125</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>ИПР Костомукша СС</t>
+          <t>ОПП МСК Пром (Север)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2528740.853478949</v>
+        <v>2112360.384296873</v>
       </c>
       <c r="C20" t="n">
-        <v>2416775.70652452</v>
+        <v>1688726.945372761</v>
       </c>
       <c r="D20" t="n">
-        <v>2274744.189587697</v>
+        <v>471791.2445366698</v>
       </c>
       <c r="E20" t="n">
-        <v>2411556.939266638</v>
+        <v>795146.4253758326</v>
       </c>
       <c r="F20" t="n">
-        <v>2529218.043424057</v>
+        <v>1821341.381271645</v>
       </c>
       <c r="G20" t="n">
-        <v>2417188.472757088</v>
+        <v>1455911.475136936</v>
       </c>
       <c r="H20" t="n">
-        <v>2275101.22972338</v>
+        <v>285538.6540952489</v>
       </c>
       <c r="I20" t="n">
-        <v>2411865.776687024</v>
+        <v>646144.1816202902</v>
       </c>
       <c r="J20" t="n">
-        <v>2529485.185805819</v>
+        <v>1702139.449145129</v>
       </c>
       <c r="K20" t="n">
-        <v>2417419.549198679</v>
+        <v>1360549.819737931</v>
       </c>
       <c r="L20" t="n">
-        <v>2275301.109358751</v>
+        <v>209249.2420177102</v>
       </c>
       <c r="M20" t="n">
-        <v>2412038.671285715</v>
+        <v>585112.5817515107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>ИПР Олкон</t>
+          <t>ОПП Мурманск</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1320340.922013524</v>
+        <v>3205271.846990908</v>
       </c>
       <c r="C21" t="n">
-        <v>1729170.898059932</v>
+        <v>4408831.620751509</v>
       </c>
       <c r="D21" t="n">
-        <v>1353288.431711247</v>
+        <v>5014779.392733694</v>
       </c>
       <c r="E21" t="n">
-        <v>1631414.17138781</v>
+        <v>2662725.465429705</v>
       </c>
       <c r="F21" t="n">
-        <v>1349611.864259392</v>
+        <v>3205454.348314883</v>
       </c>
       <c r="G21" t="n">
-        <v>1752591.558907855</v>
+        <v>4408977.628796737</v>
       </c>
       <c r="H21" t="n">
-        <v>1372028.086552077</v>
+        <v>5014896.204758983</v>
       </c>
       <c r="I21" t="n">
-        <v>1646408.396607744</v>
+        <v>2662818.919521435</v>
       </c>
       <c r="J21" t="n">
-        <v>1361609.245847033</v>
+        <v>3205529.115165637</v>
       </c>
       <c r="K21" t="n">
-        <v>1762191.065574468</v>
+        <v>4409037.445139373</v>
       </c>
       <c r="L21" t="n">
-        <v>1379708.97321632</v>
+        <v>5014944.060122828</v>
       </c>
       <c r="M21" t="n">
-        <v>1652554.131174931</v>
+        <v>2662857.205644388</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>ИПР Свеза</t>
+          <t>ОПП Нижний Новгород</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>536558.3410202004</v>
+        <v>13196269.37226154</v>
       </c>
       <c r="C22" t="n">
-        <v>536591.3065913114</v>
+        <v>13428209.83957645</v>
       </c>
       <c r="D22" t="n">
-        <v>537090.6415792842</v>
+        <v>12831809.51354843</v>
       </c>
       <c r="E22" t="n">
-        <v>536832.8464699266</v>
+        <v>12566786.72296877</v>
       </c>
       <c r="F22" t="n">
-        <v>536616.430536018</v>
+        <v>13855521.82050379</v>
       </c>
       <c r="G22" t="n">
-        <v>536648.1658969177</v>
+        <v>14074276.85102544</v>
       </c>
       <c r="H22" t="n">
-        <v>537146.2967278688</v>
+        <v>13464954.80469682</v>
       </c>
       <c r="I22" t="n">
-        <v>536887.3229629289</v>
+        <v>13187268.73582422</v>
       </c>
       <c r="J22" t="n">
-        <v>536669.7533348119</v>
+        <v>14463593.82808179</v>
       </c>
       <c r="K22" t="n">
-        <v>536700.3594342495</v>
+        <v>14670187.06073215</v>
       </c>
       <c r="L22" t="n">
-        <v>537197.3849190519</v>
+        <v>14048946.45964428</v>
       </c>
       <c r="M22" t="n">
-        <v>536937.3292168023</v>
+        <v>13759580.21411912</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>ИПР Сегежа</t>
+          <t>ОПП НКЗ</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>4037.280662243712</v>
+        <v>5641320.712543024</v>
       </c>
       <c r="C23" t="n">
-        <v>4082.636326197332</v>
+        <v>6393505.210615703</v>
       </c>
       <c r="D23" t="n">
-        <v>4052.689291518963</v>
+        <v>6554421.395670366</v>
       </c>
       <c r="E23" t="n">
-        <v>4136.536333588561</v>
+        <v>6514340.372569764</v>
       </c>
       <c r="F23" t="n">
-        <v>3998.554269523653</v>
+        <v>5640585.254037591</v>
       </c>
       <c r="G23" t="n">
-        <v>4044.729230199443</v>
+        <v>6392916.843132471</v>
       </c>
       <c r="H23" t="n">
-        <v>4015.584159177294</v>
+        <v>6553950.701140671</v>
       </c>
       <c r="I23" t="n">
-        <v>4100.216198536026</v>
+        <v>6513963.81651152</v>
       </c>
       <c r="J23" t="n">
-        <v>3963.002524334135</v>
+        <v>5640284.008843404</v>
       </c>
       <c r="K23" t="n">
-        <v>4009.929618794027</v>
+        <v>6392675.846699049</v>
       </c>
       <c r="L23" t="n">
-        <v>3981.520769391158</v>
+        <v>6553757.903771474</v>
       </c>
       <c r="M23" t="n">
-        <v>4066.873454842582</v>
+        <v>6513809.578438195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>ИПР Череповец СС</t>
+          <t>ОПП СПб Пром</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11726575.49478366</v>
+        <v>10562901.17050118</v>
       </c>
       <c r="C24" t="n">
-        <v>13015296.92760205</v>
+        <v>11817561.8969267</v>
       </c>
       <c r="D24" t="n">
-        <v>13803340.6889025</v>
+        <v>11984472.16249854</v>
       </c>
       <c r="E24" t="n">
-        <v>13170489.95933516</v>
+        <v>9897711.833698409</v>
       </c>
       <c r="F24" t="n">
-        <v>11868624.18271617</v>
+        <v>11326257.1721951</v>
       </c>
       <c r="G24" t="n">
-        <v>13154504.42928718</v>
+        <v>12565650.75239881</v>
       </c>
       <c r="H24" t="n">
-        <v>13939763.83231529</v>
+        <v>12717599.21519704</v>
       </c>
       <c r="I24" t="n">
-        <v>13304184.43580614</v>
+        <v>10616176.32019205</v>
       </c>
       <c r="J24" t="n">
-        <v>11999644.56966596</v>
+        <v>12030352.344311</v>
       </c>
       <c r="K24" t="n">
-        <v>13282904.21250632</v>
+        <v>13255663.99691748</v>
       </c>
       <c r="L24" t="n">
-        <v>14065595.42779854</v>
+        <v>13393812.17115352</v>
       </c>
       <c r="M24" t="n">
-        <v>13427499.21114992</v>
+        <v>11278864.99383103</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>ИПР Яковлевский СС</t>
+          <t>ОПП СПб Север Авто</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2314863.648361498</v>
+        <v>4980433.921338139</v>
       </c>
       <c r="C25" t="n">
-        <v>3099664.989095073</v>
+        <v>5435133.761149727</v>
       </c>
       <c r="D25" t="n">
-        <v>2938337.963929728</v>
+        <v>5562631.004320269</v>
       </c>
       <c r="E25" t="n">
-        <v>2949840.767280332</v>
+        <v>4242763.792493683</v>
       </c>
       <c r="F25" t="n">
-        <v>2323081.004116922</v>
+        <v>4980455.788116708</v>
       </c>
       <c r="G25" t="n">
-        <v>3107210.192035732</v>
+        <v>5435152.326308905</v>
       </c>
       <c r="H25" t="n">
-        <v>2945265.99395668</v>
+        <v>5562646.766364696</v>
       </c>
       <c r="I25" t="n">
-        <v>2956202.107118617</v>
+        <v>4242777.174659824</v>
       </c>
       <c r="J25" t="n">
-        <v>2328922.007169842</v>
+        <v>4980467.149737432</v>
       </c>
       <c r="K25" t="n">
-        <v>3112573.420149861</v>
+        <v>5435161.972462159</v>
       </c>
       <c r="L25" t="n">
-        <v>2950190.527558799</v>
+        <v>5562654.956065344</v>
       </c>
       <c r="M25" t="n">
-        <v>2960723.829984461</v>
+        <v>4242784.127814613</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>ИПР Нижний Тагил</t>
+          <t>ОПП СПб Юг Авто</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12152289.76016961</v>
+        <v>11688555.14358776</v>
       </c>
       <c r="C26" t="n">
-        <v>12155607.44623549</v>
+        <v>11607161.99059665</v>
       </c>
       <c r="D26" t="n">
-        <v>12157898.08830741</v>
+        <v>11815034.71548682</v>
       </c>
       <c r="E26" t="n">
-        <v>12689717.12084058</v>
+        <v>10770419.7822457</v>
       </c>
       <c r="F26" t="n">
-        <v>12159799.39675249</v>
+        <v>11773038.90954378</v>
       </c>
       <c r="G26" t="n">
-        <v>12162230.66088986</v>
+        <v>11686430.73196918</v>
       </c>
       <c r="H26" t="n">
-        <v>12163739.51243941</v>
+        <v>11889410.34597252</v>
       </c>
       <c r="I26" t="n">
-        <v>12694869.03538218</v>
+        <v>10840204.34441188</v>
       </c>
       <c r="J26" t="n">
-        <v>12164343.1899858</v>
+        <v>11838515.80143596</v>
       </c>
       <c r="K26" t="n">
-        <v>12166238.11419298</v>
+        <v>11747865.85800251</v>
       </c>
       <c r="L26" t="n">
-        <v>12167273.93426542</v>
+        <v>11947053.19678081</v>
       </c>
       <c r="M26" t="n">
-        <v>12697986.26138565</v>
+        <v>10894289.01003955</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>ИПР НКЗ</t>
+          <t>ОПП Сургут</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19241546.06799664</v>
+        <v>3120088.265405029</v>
       </c>
       <c r="C27" t="n">
-        <v>20903252.00303655</v>
+        <v>3912995.095015872</v>
       </c>
       <c r="D27" t="n">
-        <v>20297082.10781946</v>
+        <v>3819217.692296986</v>
       </c>
       <c r="E27" t="n">
-        <v>21846974.14636614</v>
+        <v>2627161.599999956</v>
       </c>
       <c r="F27" t="n">
-        <v>19924441.97568261</v>
+        <v>3119540.724410295</v>
       </c>
       <c r="G27" t="n">
-        <v>21572488.73311396</v>
+        <v>3912557.059857995</v>
       </c>
       <c r="H27" t="n">
-        <v>20952932.8690319</v>
+        <v>3818867.262281001</v>
       </c>
       <c r="I27" t="n">
-        <v>22489706.68277846</v>
+        <v>2626881.254475414</v>
       </c>
       <c r="J27" t="n">
-        <v>20554318.67598455</v>
+        <v>3119316.446781251</v>
       </c>
       <c r="K27" t="n">
-        <v>22189766.73773757</v>
+        <v>3912377.636787227</v>
       </c>
       <c r="L27" t="n">
-        <v>21557864.17512633</v>
+        <v>3818723.723050356</v>
       </c>
       <c r="M27" t="n">
-        <v>23082538.24708512</v>
+        <v>2626766.42247167</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>ИПР Русал</t>
+          <t>ОПП Хабаровск</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>20720340.83150188</v>
+        <v>11410528.25492831</v>
       </c>
       <c r="C28" t="n">
-        <v>21234706.47876016</v>
+        <v>10807958.85329986</v>
       </c>
       <c r="D28" t="n">
-        <v>21739382.04154318</v>
+        <v>12178419.83285934</v>
       </c>
       <c r="E28" t="n">
-        <v>22230994.52868221</v>
+        <v>8894805.022098064</v>
       </c>
       <c r="F28" t="n">
-        <v>22713052.4474457</v>
+        <v>11456441.83159741</v>
       </c>
       <c r="G28" t="n">
-        <v>23186823.2552123</v>
+        <v>10850495.02820844</v>
       </c>
       <c r="H28" t="n">
-        <v>23651730.96268952</v>
+        <v>12217827.04761181</v>
       </c>
       <c r="I28" t="n">
-        <v>24104385.7316696</v>
+        <v>8931313.44293949</v>
       </c>
       <c r="J28" t="n">
-        <v>24548279.56558413</v>
+        <v>11490264.6937486</v>
       </c>
       <c r="K28" t="n">
-        <v>24984663.75418543</v>
+        <v>10881829.88131169</v>
       </c>
       <c r="L28" t="n">
-        <v>25412946.46991597</v>
+        <v>12246856.9095618</v>
       </c>
       <c r="M28" t="n">
-        <v>25829722.35895474</v>
+        <v>8958207.868838305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>ИПР УГМК</t>
+          <t>Магазин Владивосток</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>23116059.8268094</v>
+        <v>1841797.516134259</v>
       </c>
       <c r="C29" t="n">
-        <v>25405248.30575082</v>
+        <v>1864533.24404536</v>
       </c>
       <c r="D29" t="n">
-        <v>25315490.95354396</v>
+        <v>1832555.742369426</v>
       </c>
       <c r="E29" t="n">
-        <v>26232814.18234288</v>
+        <v>1844007.021437242</v>
       </c>
       <c r="F29" t="n">
-        <v>26940503.76074401</v>
+        <v>1865145.03520098</v>
       </c>
       <c r="G29" t="n">
-        <v>29153202.86510627</v>
+        <v>1886633.706462021</v>
       </c>
       <c r="H29" t="n">
-        <v>28988485.9357299</v>
+        <v>1853475.756938615</v>
       </c>
       <c r="I29" t="n">
-        <v>29832348.78862241</v>
+        <v>1863809.639198089</v>
       </c>
       <c r="J29" t="n">
-        <v>30468047.20816058</v>
+        <v>1883889.939459305</v>
       </c>
       <c r="K29" t="n">
-        <v>32610194.98617193</v>
+        <v>1904377.392670442</v>
       </c>
       <c r="L29" t="n">
-        <v>32376337.7661198</v>
+        <v>1870271.702968751</v>
       </c>
       <c r="M29" t="n">
-        <v>33152443.1431152</v>
+        <v>1879708.466518049</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 1</t>
+          <t>Магазин Воронеж</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>44653887.86280862</v>
+        <v>288473.6421401867</v>
       </c>
       <c r="C30" t="n">
-        <v>47545398.81273149</v>
+        <v>279559.9284812637</v>
       </c>
       <c r="D30" t="n">
-        <v>50488172.62106237</v>
+        <v>298690.7213187243</v>
       </c>
       <c r="E30" t="n">
-        <v>41893090.98974589</v>
+        <v>231742.3229873588</v>
       </c>
       <c r="F30" t="n">
-        <v>45579019.01788472</v>
+        <v>165399.3446932999</v>
       </c>
       <c r="G30" t="n">
-        <v>48452025.72963271</v>
+        <v>168565.1958575334</v>
       </c>
       <c r="H30" t="n">
-        <v>51376665.41685648</v>
+        <v>198589.9616493056</v>
       </c>
       <c r="I30" t="n">
-        <v>42763812.37851319</v>
+        <v>141466.3085357284</v>
       </c>
       <c r="J30" t="n">
-        <v>46432324.45879067</v>
+        <v>83983.79088346426</v>
       </c>
       <c r="K30" t="n">
-        <v>49288263.57203891</v>
+        <v>95140.46125414915</v>
       </c>
       <c r="L30" t="n">
-        <v>52196177.04252917</v>
+        <v>132371.7588698987</v>
       </c>
       <c r="M30" t="n">
-        <v>43566932.34098729</v>
+        <v>81747.32687348417</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Менеджер ОРСТП 2</t>
+          <t>Магазин Казань / ПВЗ Казань</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37304074.05692112</v>
+        <v>2533206.359383435</v>
       </c>
       <c r="C31" t="n">
-        <v>38139103.3122245</v>
+        <v>2468553.033318107</v>
       </c>
       <c r="D31" t="n">
-        <v>39829291.68048726</v>
+        <v>2702337.553784182</v>
       </c>
       <c r="E31" t="n">
-        <v>36934262.7161369</v>
+        <v>2950706.313908055</v>
       </c>
       <c r="F31" t="n">
-        <v>37324086.62295607</v>
+        <v>2533753.810509879</v>
       </c>
       <c r="G31" t="n">
-        <v>38156959.21079897</v>
+        <v>2468990.994219263</v>
       </c>
       <c r="H31" t="n">
-        <v>39845223.32630145</v>
+        <v>2702687.922505106</v>
       </c>
       <c r="I31" t="n">
-        <v>36948477.47756658</v>
+        <v>2950986.608884795</v>
       </c>
       <c r="J31" t="n">
-        <v>37336769.52118639</v>
+        <v>2533978.046491271</v>
       </c>
       <c r="K31" t="n">
-        <v>38168275.32808425</v>
+        <v>2469170.383004376</v>
       </c>
       <c r="L31" t="n">
-        <v>39855319.95469732</v>
+        <v>2702831.433533197</v>
       </c>
       <c r="M31" t="n">
-        <v>36957486.03610255</v>
+        <v>2951101.417707267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>ОПП Владивосток</t>
+          <t>Магазин Кемерово</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1557364.554741522</v>
+        <v>1616172.660567463</v>
       </c>
       <c r="C32" t="n">
-        <v>1666948.961292637</v>
+        <v>1600124.257740735</v>
       </c>
       <c r="D32" t="n">
-        <v>1774432.676601016</v>
+        <v>1615195.581832517</v>
       </c>
       <c r="E32" t="n">
-        <v>1879501.65266148</v>
+        <v>1542791.117363744</v>
       </c>
       <c r="F32" t="n">
-        <v>1982544.535603163</v>
+        <v>1561449.887444468</v>
       </c>
       <c r="G32" t="n">
-        <v>2083622.518681771</v>
+        <v>1549142.68819487</v>
       </c>
       <c r="H32" t="n">
-        <v>2182769.995482953</v>
+        <v>1567699.442930381</v>
       </c>
       <c r="I32" t="n">
-        <v>2279669.513171931</v>
+        <v>1498542.122468018</v>
       </c>
       <c r="J32" t="n">
-        <v>2374706.381167447</v>
+        <v>1520226.040737345</v>
       </c>
       <c r="K32" t="n">
-        <v>2467938.522771182</v>
+        <v>1510737.170932</v>
       </c>
       <c r="L32" t="n">
-        <v>2559397.127035559</v>
+        <v>1531919.575837732</v>
       </c>
       <c r="M32" t="n">
-        <v>2648761.600704521</v>
+        <v>1465208.399076007</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>ОПП Воронеж</t>
+          <t>Магазин Краснодар</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4863950.309636715</v>
+        <v>2800522.251870822</v>
       </c>
       <c r="C33" t="n">
-        <v>5047731.996423909</v>
+        <v>2828850.980091223</v>
       </c>
       <c r="D33" t="n">
-        <v>5290485.702180845</v>
+        <v>2856694.731827779</v>
       </c>
       <c r="E33" t="n">
-        <v>5539457.600882358</v>
+        <v>2883645.906972396</v>
       </c>
       <c r="F33" t="n">
-        <v>5328504.553971213</v>
+        <v>2910332.951731481</v>
       </c>
       <c r="G33" t="n">
-        <v>5502993.530999352</v>
+        <v>2936464.812967547</v>
       </c>
       <c r="H33" t="n">
-        <v>5736640.413695544</v>
+        <v>2962155.648123079</v>
       </c>
       <c r="I33" t="n">
-        <v>5976687.657650482</v>
+        <v>2986996.977820568</v>
       </c>
       <c r="J33" t="n">
-        <v>5756988.480303477</v>
+        <v>3011616.386587622</v>
       </c>
       <c r="K33" t="n">
-        <v>5922906.280095832</v>
+        <v>3035721.976846653</v>
       </c>
       <c r="L33" t="n">
-        <v>6148153.439080381</v>
+        <v>3059427.07849387</v>
       </c>
       <c r="M33" t="n">
-        <v>6379968.98317764</v>
+        <v>3082322.401161335</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>ОПП Казань+Чувашия</t>
+          <t>Магазин Красноярск 1</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>12344616.61539616</v>
+        <v>3031949.065145913</v>
       </c>
       <c r="C34" t="n">
-        <v>11596161.48060426</v>
+        <v>2886667.225511337</v>
       </c>
       <c r="D34" t="n">
-        <v>12580846.38434926</v>
+        <v>2897150.492506027</v>
       </c>
       <c r="E34" t="n">
-        <v>12685117.03996659</v>
+        <v>3110202.834874546</v>
       </c>
       <c r="F34" t="n">
-        <v>13084651.28422939</v>
+        <v>3032105.02175545</v>
       </c>
       <c r="G34" t="n">
-        <v>12320669.87524913</v>
+        <v>2886791.99079926</v>
       </c>
       <c r="H34" t="n">
-        <v>13290154.25331502</v>
+        <v>2897250.3047366</v>
       </c>
       <c r="I34" t="n">
-        <v>13379543.29740611</v>
+        <v>3110282.684659192</v>
       </c>
       <c r="J34" t="n">
-        <v>13764508.15332714</v>
+        <v>3032168.901583318</v>
       </c>
       <c r="K34" t="n">
-        <v>12986263.02860084</v>
+        <v>2886843.094661674</v>
       </c>
       <c r="L34" t="n">
-        <v>13941782.9503621</v>
+        <v>2897291.187826627</v>
       </c>
       <c r="M34" t="n">
-        <v>14017500.51898663</v>
+        <v>3110315.391131291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>ОПП Краснодар</t>
+          <t>Магазин МСК 3</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6214609.627477076</v>
+        <v>1296273.724421162</v>
       </c>
       <c r="C35" t="n">
-        <v>6349463.035754706</v>
+        <v>1256525.706029117</v>
       </c>
       <c r="D35" t="n">
-        <v>6480592.483749161</v>
+        <v>1224484.513423358</v>
       </c>
       <c r="E35" t="n">
-        <v>6609648.948934208</v>
+        <v>1198868.066469356</v>
       </c>
       <c r="F35" t="n">
-        <v>6735137.37312</v>
+        <v>1178525.228952594</v>
       </c>
       <c r="G35" t="n">
-        <v>6859580.150459059</v>
+        <v>1162322.105825332</v>
       </c>
       <c r="H35" t="n">
-        <v>6980507.18165424</v>
+        <v>1149117.790001202</v>
       </c>
       <c r="I35" t="n">
-        <v>7099565.279866113</v>
+        <v>1138571.612967534</v>
       </c>
       <c r="J35" t="n">
-        <v>7215255.305878508</v>
+        <v>1130285.606214416</v>
       </c>
       <c r="K35" t="n">
-        <v>7330095.654438742</v>
+        <v>1123728.439585055</v>
       </c>
       <c r="L35" t="n">
-        <v>7441612.306833159</v>
+        <v>1118241.2824889</v>
       </c>
       <c r="M35" t="n">
-        <v>7551448.235194717</v>
+        <v>1113869.147277393</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>ОПП Красноярск</t>
+          <t>Магазин МСК Балашиха</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3700215.198253246</v>
+        <v>1117607.99228605</v>
       </c>
       <c r="C36" t="n">
-        <v>3313952.975867773</v>
+        <v>828885.1980263409</v>
       </c>
       <c r="D36" t="n">
-        <v>3793669.28448007</v>
+        <v>773873.1085339444</v>
       </c>
       <c r="E36" t="n">
-        <v>3292846.354361308</v>
+        <v>848455.8806291469</v>
       </c>
       <c r="F36" t="n">
-        <v>3780757.705225217</v>
+        <v>1117591.226059255</v>
       </c>
       <c r="G36" t="n">
-        <v>3392757.212256325</v>
+        <v>828870.6678076701</v>
       </c>
       <c r="H36" t="n">
-        <v>3870772.765688371</v>
+        <v>773860.5161208034</v>
       </c>
       <c r="I36" t="n">
-        <v>3368285.78613407</v>
+        <v>848444.9675883797</v>
       </c>
       <c r="J36" t="n">
-        <v>3854569.001122769</v>
+        <v>1117581.768423339</v>
       </c>
       <c r="K36" t="n">
-        <v>3464975.510751556</v>
+        <v>828862.4714782489</v>
       </c>
       <c r="L36" t="n">
-        <v>3941432.446894689</v>
+        <v>773853.4128852191</v>
       </c>
       <c r="M36" t="n">
-        <v>3437420.488172339</v>
+        <v>848438.8116674579</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Авто ( Юг)</t>
+          <t>Магазин МСК Кунцево</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4106671.354942824</v>
+        <v>3778692.678815499</v>
       </c>
       <c r="C37" t="n">
-        <v>5511818.519592817</v>
+        <v>4075186.792291195</v>
       </c>
       <c r="D37" t="n">
-        <v>5978702.76948523</v>
+        <v>3782867.603293502</v>
       </c>
       <c r="E37" t="n">
-        <v>5473619.707822768</v>
+        <v>3434363.860856357</v>
       </c>
       <c r="F37" t="n">
-        <v>4107228.648086522</v>
+        <v>3778495.667636378</v>
       </c>
       <c r="G37" t="n">
-        <v>5512264.354107775</v>
+        <v>4075029.183347899</v>
       </c>
       <c r="H37" t="n">
-        <v>5979059.437097197</v>
+        <v>3782741.516138864</v>
       </c>
       <c r="I37" t="n">
-        <v>5473905.041912341</v>
+        <v>3434262.991132648</v>
       </c>
       <c r="J37" t="n">
-        <v>4107456.915358181</v>
+        <v>3778414.97185741</v>
       </c>
       <c r="K37" t="n">
-        <v>5512446.967925102</v>
+        <v>4074964.626724724</v>
       </c>
       <c r="L37" t="n">
-        <v>5979205.528151058</v>
+        <v>3782689.870840325</v>
       </c>
       <c r="M37" t="n">
-        <v>5474021.91475543</v>
+        <v>3434221.674893816</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>ОПП МСК Пром (Север)</t>
+          <t>Магазин Мурманск</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1697794.650697528</v>
+        <v>4664134.98347161</v>
       </c>
       <c r="C38" t="n">
-        <v>2535642.799408177</v>
+        <v>4201319.005707541</v>
       </c>
       <c r="D38" t="n">
-        <v>2184323.895289929</v>
+        <v>4641976.172322271</v>
       </c>
       <c r="E38" t="n">
-        <v>1196904.169055907</v>
+        <v>4551088.304766207</v>
       </c>
       <c r="F38" t="n">
-        <v>1713309.679256176</v>
+        <v>4993214.475025975</v>
       </c>
       <c r="G38" t="n">
-        <v>2550210.654377948</v>
+        <v>4516991.265946928</v>
       </c>
       <c r="H38" t="n">
-        <v>2198002.400464321</v>
+        <v>4944787.433558773</v>
       </c>
       <c r="I38" t="n">
-        <v>1209747.618156279</v>
+        <v>4841562.544923087</v>
       </c>
       <c r="J38" t="n">
-        <v>1725369.051438354</v>
+        <v>5271854.324317504</v>
       </c>
       <c r="K38" t="n">
-        <v>2561533.816582413</v>
+        <v>4784278.876618614</v>
       </c>
       <c r="L38" t="n">
-        <v>2208634.29741316</v>
+        <v>5201185.314192966</v>
       </c>
       <c r="M38" t="n">
-        <v>1219730.45075106</v>
+        <v>5087514.360753619</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>ОПП Мурманск</t>
+          <t>Магазин Нижневартовск</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3752938.452715057</v>
+        <v>6244533.672466187</v>
       </c>
       <c r="C39" t="n">
-        <v>3965161.030744605</v>
+        <v>4174580.044230504</v>
       </c>
       <c r="D39" t="n">
-        <v>4471951.050056636</v>
+        <v>4632164.060155321</v>
       </c>
       <c r="E39" t="n">
-        <v>4666462.914819445</v>
+        <v>3864367.027496866</v>
       </c>
       <c r="F39" t="n">
-        <v>3753639.090214633</v>
+        <v>6244360.884192569</v>
       </c>
       <c r="G39" t="n">
-        <v>3965751.62769237</v>
+        <v>4174441.81311651</v>
       </c>
       <c r="H39" t="n">
-        <v>4472448.889174469</v>
+        <v>4632053.474868044</v>
       </c>
       <c r="I39" t="n">
-        <v>4666882.564443748</v>
+        <v>3864278.558950179</v>
       </c>
       <c r="J39" t="n">
-        <v>3753992.830611621</v>
+        <v>6244290.109101726</v>
       </c>
       <c r="K39" t="n">
-        <v>3966049.810417229</v>
+        <v>4174385.192841039</v>
       </c>
       <c r="L39" t="n">
-        <v>4472700.239990382</v>
+        <v>4632008.178485429</v>
       </c>
       <c r="M39" t="n">
-        <v>4667094.438665135</v>
+        <v>3864242.321714297</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>ОПП Нижний Новгород</t>
+          <t>Магазин НКЗ</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>13826263.25691555</v>
+        <v>4883048.251787063</v>
       </c>
       <c r="C40" t="n">
-        <v>13977514.12818735</v>
+        <v>4849480.506096015</v>
       </c>
       <c r="D40" t="n">
-        <v>14380751.27433632</v>
+        <v>4971783.44713715</v>
       </c>
       <c r="E40" t="n">
-        <v>13720619.20520913</v>
+        <v>4550112.165516571</v>
       </c>
       <c r="F40" t="n">
-        <v>14759853.31045691</v>
+        <v>4944747.781874508</v>
       </c>
       <c r="G40" t="n">
-        <v>14813902.86583323</v>
+        <v>4908696.268493026</v>
       </c>
       <c r="H40" t="n">
-        <v>15130058.87225609</v>
+        <v>5028615.428049964</v>
       </c>
       <c r="I40" t="n">
-        <v>14391912.17106206</v>
+        <v>4604656.326120631</v>
       </c>
       <c r="J40" t="n">
-        <v>15361254.18675214</v>
+        <v>4997096.220345543</v>
       </c>
       <c r="K40" t="n">
-        <v>15352688.51145537</v>
+        <v>4958937.37551543</v>
       </c>
       <c r="L40" t="n">
-        <v>15612748.51134794</v>
+        <v>5076834.03606505</v>
       </c>
       <c r="M40" t="n">
-        <v>14824346.2746425</v>
+        <v>4650933.852566768</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>ОПП НКЗ</t>
+          <t>Магазин НН Бурнаковский</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7610146.251608655</v>
+        <v>2985499.658799186</v>
       </c>
       <c r="C41" t="n">
-        <v>6675111.654291385</v>
+        <v>2903755.420359915</v>
       </c>
       <c r="D41" t="n">
-        <v>7164068.813966821</v>
+        <v>3263651.297296548</v>
       </c>
       <c r="E41" t="n">
-        <v>7708570.403946982</v>
+        <v>2838064.472972837</v>
       </c>
       <c r="F41" t="n">
-        <v>7609983.654225656</v>
+        <v>2977986.923090355</v>
       </c>
       <c r="G41" t="n">
-        <v>6674981.576376072</v>
+        <v>2897383.936705687</v>
       </c>
       <c r="H41" t="n">
-        <v>7163964.75162744</v>
+        <v>3258247.699255906</v>
       </c>
       <c r="I41" t="n">
-        <v>7708487.154069772</v>
+        <v>2833481.730024819</v>
       </c>
       <c r="J41" t="n">
-        <v>7609917.054319324</v>
+        <v>2974100.339971172</v>
       </c>
       <c r="K41" t="n">
-        <v>6674928.296447356</v>
+        <v>2894087.760482481</v>
       </c>
       <c r="L41" t="n">
-        <v>7163922.127681546</v>
+        <v>3255452.241816491</v>
       </c>
       <c r="M41" t="n">
-        <v>7708453.05491072</v>
+        <v>2831110.927687078</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Пром</t>
+          <t>Магазин НН Ларина</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>9293364.930363936</v>
+        <v>3740919.530876488</v>
       </c>
       <c r="C42" t="n">
-        <v>10581926.73684729</v>
+        <v>3730403.696277637</v>
       </c>
       <c r="D42" t="n">
-        <v>11808422.73410321</v>
+        <v>3797071.687171305</v>
       </c>
       <c r="E42" t="n">
-        <v>11813122.35588753</v>
+        <v>3595511.696973158</v>
       </c>
       <c r="F42" t="n">
-        <v>9751478.638013002</v>
+        <v>3745657.50200411</v>
       </c>
       <c r="G42" t="n">
-        <v>10966538.52565354</v>
+        <v>3734690.089403382</v>
       </c>
       <c r="H42" t="n">
-        <v>12131325.5977784</v>
+        <v>3800949.542382646</v>
       </c>
       <c r="I42" t="n">
-        <v>12084217.16474209</v>
+        <v>3599019.952188903</v>
       </c>
       <c r="J42" t="n">
-        <v>9979077.720137632</v>
+        <v>3748831.383953803</v>
       </c>
       <c r="K42" t="n">
-        <v>11157620.54010762</v>
+        <v>3737561.467342301</v>
       </c>
       <c r="L42" t="n">
-        <v>12291749.51472477</v>
+        <v>3803547.248094073</v>
       </c>
       <c r="M42" t="n">
-        <v>12218901.91360211</v>
+        <v>3601370.069486844</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Север Авто</t>
+          <t>Магазин СПб Богатырский</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4133434.933806996</v>
+        <v>2864516.609566732</v>
       </c>
       <c r="C43" t="n">
-        <v>4588391.325156936</v>
+        <v>2884442.866006607</v>
       </c>
       <c r="D43" t="n">
-        <v>5022274.674082864</v>
+        <v>3191829.289170217</v>
       </c>
       <c r="E43" t="n">
-        <v>5322862.142458847</v>
+        <v>2621001.563654646</v>
       </c>
       <c r="F43" t="n">
-        <v>4133094.529217374</v>
+        <v>2864479.036820975</v>
       </c>
       <c r="G43" t="n">
-        <v>4588118.995672951</v>
+        <v>2884412.806807679</v>
       </c>
       <c r="H43" t="n">
-        <v>5022056.805845747</v>
+        <v>3191805.241009189</v>
       </c>
       <c r="I43" t="n">
-        <v>5322687.844149131</v>
+        <v>2620982.324484295</v>
       </c>
       <c r="J43" t="n">
-        <v>4132955.087593519</v>
+        <v>2864463.644971455</v>
       </c>
       <c r="K43" t="n">
-        <v>4588007.439992952</v>
+        <v>2884400.492917456</v>
       </c>
       <c r="L43" t="n">
-        <v>5021967.559396975</v>
+        <v>3191795.389568515</v>
       </c>
       <c r="M43" t="n">
-        <v>5322616.445466261</v>
+        <v>2620974.44306895</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>ОПП СПб Юг Авто</t>
+          <t>Магазин СПб Софийская</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>13368221.49046304</v>
+        <v>5336726.729176752</v>
       </c>
       <c r="C44" t="n">
-        <v>13603104.81355561</v>
+        <v>5727934.546295915</v>
       </c>
       <c r="D44" t="n">
-        <v>13519908.95752564</v>
+        <v>5582180.346388137</v>
       </c>
       <c r="E44" t="n">
-        <v>13836729.57644027</v>
+        <v>5295690.412568032</v>
       </c>
       <c r="F44" t="n">
-        <v>13688508.26823884</v>
+        <v>5336810.821754888</v>
       </c>
       <c r="G44" t="n">
-        <v>13916984.01619232</v>
+        <v>5728001.820409403</v>
       </c>
       <c r="H44" t="n">
-        <v>13827508.77332827</v>
+        <v>5582234.165719712</v>
       </c>
       <c r="I44" t="n">
-        <v>14138175.62921148</v>
+        <v>5295733.468065919</v>
       </c>
       <c r="J44" t="n">
-        <v>13983923.66858371</v>
+        <v>5336845.2661793</v>
       </c>
       <c r="K44" t="n">
-        <v>14206489.41179673</v>
+        <v>5728029.375969814</v>
       </c>
       <c r="L44" t="n">
-        <v>14111222.39823146</v>
+        <v>5582256.210184746</v>
       </c>
       <c r="M44" t="n">
-        <v>14416213.35209281</v>
+        <v>5295751.103651311</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>ОПП Сургут</t>
+          <t>Магазин СПб Энергетиков</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>4430913.834710818</v>
+        <v>2774326.075392157</v>
       </c>
       <c r="C45" t="n">
-        <v>4370169.812923461</v>
+        <v>2555624.087760494</v>
       </c>
       <c r="D45" t="n">
-        <v>5208643.182764206</v>
+        <v>3094109.286067664</v>
       </c>
       <c r="E45" t="n">
-        <v>5132438.418714504</v>
+        <v>2686188.370512134</v>
       </c>
       <c r="F45" t="n">
-        <v>4559420.138287834</v>
+        <v>2774216.043919784</v>
       </c>
       <c r="G45" t="n">
-        <v>4495989.780770999</v>
+        <v>2555536.061566223</v>
       </c>
       <c r="H45" t="n">
-        <v>5331832.970879681</v>
+        <v>3094038.864299139</v>
       </c>
       <c r="I45" t="n">
-        <v>5253053.009192899</v>
+        <v>2686132.032446821</v>
       </c>
       <c r="J45" t="n">
-        <v>4677513.363861321</v>
+        <v>2774170.972947133</v>
       </c>
       <c r="K45" t="n">
-        <v>4611614.348835579</v>
+        <v>2555500.004371777</v>
       </c>
       <c r="L45" t="n">
-        <v>5445040.487019558</v>
+        <v>3094010.018210518</v>
       </c>
       <c r="M45" t="n">
-        <v>5363894.000213097</v>
+        <v>2686108.95530947</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>ОПП Хабаровск</t>
+          <t>Магазин Сургут</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9573329.637915401</v>
+        <v>2234956.492892241</v>
       </c>
       <c r="C46" t="n">
-        <v>11687075.50522669</v>
+        <v>2160804.105903962</v>
       </c>
       <c r="D46" t="n">
-        <v>11137282.05183501</v>
+        <v>1954698.016238797</v>
       </c>
       <c r="E46" t="n">
-        <v>12489540.62426705</v>
+        <v>2365017.540058986</v>
       </c>
       <c r="F46" t="n">
-        <v>9678392.221386408</v>
+        <v>2234881.54842336</v>
       </c>
       <c r="G46" t="n">
-        <v>11786451.2897257</v>
+        <v>2160744.150328857</v>
       </c>
       <c r="H46" t="n">
-        <v>11231278.85087163</v>
+        <v>1954650.051778713</v>
       </c>
       <c r="I46" t="n">
-        <v>12578449.59010491</v>
+        <v>2364979.168490919</v>
       </c>
       <c r="J46" t="n">
-        <v>9762488.746878477</v>
+        <v>2234850.851168906</v>
       </c>
       <c r="K46" t="n">
-        <v>11865995.86133545</v>
+        <v>2160719.592525294</v>
       </c>
       <c r="L46" t="n">
-        <v>11306517.85552202</v>
+        <v>1954630.405535863</v>
       </c>
       <c r="M46" t="n">
-        <v>12649616.07835445</v>
+        <v>2364963.451496639</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Магазин Владивосток</t>
+          <t>Магазин Сургут 2</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2336293.187189858</v>
+        <v>1870397.501164661</v>
       </c>
       <c r="C47" t="n">
-        <v>2385342.138122767</v>
+        <v>1878705.78656154</v>
       </c>
       <c r="D47" t="n">
-        <v>2476981.228427239</v>
+        <v>1886864.155990056</v>
       </c>
       <c r="E47" t="n">
-        <v>2397261.95494918</v>
+        <v>1894753.470894761</v>
       </c>
       <c r="F47" t="n">
-        <v>2499474.883617348</v>
+        <v>1902476.131806936</v>
       </c>
       <c r="G47" t="n">
-        <v>2545259.799474211</v>
+        <v>1910106.072604246</v>
       </c>
       <c r="H47" t="n">
-        <v>2633700.143428094</v>
+        <v>1917600.441916935</v>
       </c>
       <c r="I47" t="n">
-        <v>2550846.106389896</v>
+        <v>1924839.797856689</v>
       </c>
       <c r="J47" t="n">
-        <v>2649986.974475276</v>
+        <v>1931926.244036287</v>
       </c>
       <c r="K47" t="n">
-        <v>2692761.278513015</v>
+        <v>1938933.423693626</v>
       </c>
       <c r="L47" t="n">
-        <v>2778251.230285106</v>
+        <v>1945818.20096514</v>
       </c>
       <c r="M47" t="n">
-        <v>2692505.816161662</v>
+        <v>1952460.855484694</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Магазин Воронеж</t>
+          <t>Магазин Хабаровск Индустриальный</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>298938.3101213268</v>
+        <v>5140936.93074325</v>
       </c>
       <c r="C48" t="n">
-        <v>200758.421638531</v>
+        <v>4758477.1446485</v>
       </c>
       <c r="D48" t="n">
-        <v>163122.8444233156</v>
+        <v>4990360.327538675</v>
       </c>
       <c r="E48" t="n">
-        <v>152866.5387919554</v>
+        <v>4581054.841962948</v>
       </c>
       <c r="F48" t="n">
-        <v>47758.26516628686</v>
+        <v>5256296.037561676</v>
       </c>
       <c r="G48" t="n">
-        <v>-39073.47021707392</v>
+        <v>4870000.807541388</v>
       </c>
       <c r="H48" t="n">
-        <v>-65873.59660102717</v>
+        <v>5098176.066825068</v>
       </c>
       <c r="I48" t="n">
-        <v>-65783.99011012813</v>
+        <v>4685285.93818363</v>
       </c>
       <c r="J48" t="n">
-        <v>-161013.7732780956</v>
+        <v>5357061.672442742</v>
       </c>
       <c r="K48" t="n">
-        <v>-238413.3220577313</v>
+        <v>4967416.200271084</v>
       </c>
       <c r="L48" t="n">
-        <v>-256207.4019704715</v>
+        <v>5192352.605799706</v>
       </c>
       <c r="M48" t="n">
-        <v>-247518.6364033922</v>
+        <v>4776331.308373241</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Магазин Казань / ПВЗ Казань</t>
+          <t>ПВЗ Инфор</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>656123.8029476288</v>
+        <v>827350.3839328974</v>
       </c>
       <c r="C49" t="n">
-        <v>784959.654752717</v>
+        <v>833823.5845899859</v>
       </c>
       <c r="D49" t="n">
-        <v>758270.5444675088</v>
+        <v>840150.0022675879</v>
       </c>
       <c r="E49" t="n">
-        <v>920368.6762225733</v>
+        <v>846242.3688987567</v>
       </c>
       <c r="F49" t="n">
-        <v>656317.6202228121</v>
+        <v>852308.2710166542</v>
       </c>
       <c r="G49" t="n">
-        <v>785114.7085728636</v>
+        <v>858282.0263964367</v>
       </c>
       <c r="H49" t="n">
-        <v>758394.5875236262</v>
+        <v>864118.9934563041</v>
       </c>
       <c r="I49" t="n">
-        <v>920467.9106674672</v>
+        <v>869731.7041209714</v>
       </c>
       <c r="J49" t="n">
-        <v>656397.007778727</v>
+        <v>875327.5489177334</v>
       </c>
       <c r="K49" t="n">
-        <v>785178.2186175956</v>
+        <v>880840.6535382547</v>
       </c>
       <c r="L49" t="n">
-        <v>758445.3955594117</v>
+        <v>886226.1881611261</v>
       </c>
       <c r="M49" t="n">
-        <v>920508.5570960955</v>
+        <v>891396.5002384149</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Магазин Кемерово</t>
+          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1796365.805877378</v>
+        <v>2859541.985589446</v>
       </c>
       <c r="C50" t="n">
-        <v>1802528.021696429</v>
+        <v>2717953.541439823</v>
       </c>
       <c r="D50" t="n">
-        <v>1808308.43532998</v>
+        <v>2909896.148394531</v>
       </c>
       <c r="E50" t="n">
-        <v>1813914.221406441</v>
+        <v>2717879.791863855</v>
       </c>
       <c r="F50" t="n">
-        <v>1818965.808966622</v>
+        <v>2981562.703079515</v>
       </c>
       <c r="G50" t="n">
-        <v>1824020.908276501</v>
+        <v>2837395.715953661</v>
       </c>
       <c r="H50" t="n">
-        <v>1828748.440214922</v>
+        <v>3026814.269727124</v>
       </c>
       <c r="I50" t="n">
-        <v>1833352.922585082</v>
+        <v>2832327.19833132</v>
       </c>
       <c r="J50" t="n">
-        <v>1837452.257753672</v>
+        <v>3093591.605852158</v>
       </c>
       <c r="K50" t="n">
-        <v>1841601.753087866</v>
+        <v>2947057.222874834</v>
       </c>
       <c r="L50" t="n">
-        <v>1845468.044279594</v>
+        <v>3134158.408628744</v>
       </c>
       <c r="M50" t="n">
-        <v>1849253.475890614</v>
+        <v>2937402.939856675</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Магазин Краснодар</t>
+          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2952416.276382653</v>
+        <v>3094889.996856613</v>
       </c>
       <c r="C51" t="n">
-        <v>2987627.946245225</v>
+        <v>3128810.126416135</v>
       </c>
       <c r="D51" t="n">
-        <v>3022140.413881642</v>
+        <v>3162480.547501835</v>
       </c>
       <c r="E51" t="n">
-        <v>3056043.592193469</v>
+        <v>3195184.893514743</v>
       </c>
       <c r="F51" t="n">
-        <v>3088961.115267582</v>
+        <v>3227351.787819653</v>
       </c>
       <c r="G51" t="n">
-        <v>3121441.57062871</v>
+        <v>3258622.307877952</v>
       </c>
       <c r="H51" t="n">
-        <v>3153277.454408926</v>
+        <v>3289696.119127146</v>
       </c>
       <c r="I51" t="n">
-        <v>3184557.586769771</v>
+        <v>3319855.794825456</v>
       </c>
       <c r="J51" t="n">
-        <v>3214904.530915441</v>
+        <v>3349528.919400715</v>
       </c>
       <c r="K51" t="n">
-        <v>3244865.824908128</v>
+        <v>3378355.552159016</v>
       </c>
       <c r="L51" t="n">
-        <v>3274232.936409065</v>
+        <v>3407034.360748552</v>
       </c>
       <c r="M51" t="n">
-        <v>3303093.677680758</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Красноярск 1</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>4307087.057673754</v>
-      </c>
-      <c r="C52" t="n">
-        <v>3454536.73671008</v>
-      </c>
-      <c r="D52" t="n">
-        <v>3311961.584539996</v>
-      </c>
-      <c r="E52" t="n">
-        <v>3127145.318889547</v>
-      </c>
-      <c r="F52" t="n">
-        <v>4307417.978033774</v>
-      </c>
-      <c r="G52" t="n">
-        <v>3454801.472998096</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3312173.373570408</v>
-      </c>
-      <c r="I52" t="n">
-        <v>3127314.750113877</v>
-      </c>
-      <c r="J52" t="n">
-        <v>4307553.523013238</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3454909.908981667</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3312260.122357266</v>
-      </c>
-      <c r="M52" t="n">
-        <v>3127384.149143363</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК 3</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>1609323.936555104</v>
-      </c>
-      <c r="C53" t="n">
-        <v>1616176.926206552</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1621811.759845013</v>
-      </c>
-      <c r="E53" t="n">
-        <v>1626099.025323476</v>
-      </c>
-      <c r="F53" t="n">
-        <v>1629633.937507958</v>
-      </c>
-      <c r="G53" t="n">
-        <v>1632503.935326838</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1634936.881179703</v>
-      </c>
-      <c r="I53" t="n">
-        <v>1636650.180699283</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1638115.907078035</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1639322.506869504</v>
-      </c>
-      <c r="L53" t="n">
-        <v>1640418.263481105</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1641056.609779937</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Балашиха</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>754006.2978763478</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1054475.078755824</v>
-      </c>
-      <c r="D54" t="n">
-        <v>763947.8901540024</v>
-      </c>
-      <c r="E54" t="n">
-        <v>710364.3409221697</v>
-      </c>
-      <c r="F54" t="n">
-        <v>757276.1357615514</v>
-      </c>
-      <c r="G54" t="n">
-        <v>1057506.69106202</v>
-      </c>
-      <c r="H54" t="n">
-        <v>766758.6329179381</v>
-      </c>
-      <c r="I54" t="n">
-        <v>712970.3056983617</v>
-      </c>
-      <c r="J54" t="n">
-        <v>759692.2417467339</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1059746.770507823</v>
-      </c>
-      <c r="L54" t="n">
-        <v>768835.5103207852</v>
-      </c>
-      <c r="M54" t="n">
-        <v>714895.8712199501</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Магазин МСК Кунцево</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>3748865.525796792</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3847488.861718508</v>
-      </c>
-      <c r="D55" t="n">
-        <v>4147992.306949433</v>
-      </c>
-      <c r="E55" t="n">
-        <v>3842591.805000982</v>
-      </c>
-      <c r="F55" t="n">
-        <v>3751182.203432139</v>
-      </c>
-      <c r="G55" t="n">
-        <v>3849539.002939576</v>
-      </c>
-      <c r="H55" t="n">
-        <v>4149806.577075839</v>
-      </c>
-      <c r="I55" t="n">
-        <v>3844197.341272211</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3752603.020917207</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3850796.353746313</v>
-      </c>
-      <c r="L55" t="n">
-        <v>4150919.268232736</v>
-      </c>
-      <c r="M55" t="n">
-        <v>3845182.016037603</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Мурманск</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>4720014.548537358</v>
-      </c>
-      <c r="C56" t="n">
-        <v>5085860.017531981</v>
-      </c>
-      <c r="D56" t="n">
-        <v>4694104.677646939</v>
-      </c>
-      <c r="E56" t="n">
-        <v>5083859.48695558</v>
-      </c>
-      <c r="F56" t="n">
-        <v>5050424.042758011</v>
-      </c>
-      <c r="G56" t="n">
-        <v>5399083.164550994</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4991035.430378201</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5365345.29908875</v>
-      </c>
-      <c r="J56" t="n">
-        <v>5317268.287429364</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5652047.427206398</v>
-      </c>
-      <c r="L56" t="n">
-        <v>5230841.682372146</v>
-      </c>
-      <c r="M56" t="n">
-        <v>5592677.958222982</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Нижневартовск</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>4674445.395421615</v>
-      </c>
-      <c r="C57" t="n">
-        <v>5089715.706188438</v>
-      </c>
-      <c r="D57" t="n">
-        <v>4734483.047170722</v>
-      </c>
-      <c r="E57" t="n">
-        <v>5087657.356990385</v>
-      </c>
-      <c r="F57" t="n">
-        <v>4677617.316844029</v>
-      </c>
-      <c r="G57" t="n">
-        <v>5092498.476831561</v>
-      </c>
-      <c r="H57" t="n">
-        <v>4736924.41043953</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5089799.198836035</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4679496.384392227</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5094147.008845192</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4738370.690432272</v>
-      </c>
-      <c r="M57" t="n">
-        <v>5091068.04032659</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НКЗ</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>4561741.520043385</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4618665.834094925</v>
-      </c>
-      <c r="D58" t="n">
-        <v>4749435.549810584</v>
-      </c>
-      <c r="E58" t="n">
-        <v>5079991.48219924</v>
-      </c>
-      <c r="F58" t="n">
-        <v>4587608.992316334</v>
-      </c>
-      <c r="G58" t="n">
-        <v>4642864.525471877</v>
-      </c>
-      <c r="H58" t="n">
-        <v>4772073.117879783</v>
-      </c>
-      <c r="I58" t="n">
-        <v>5101168.639265499</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4607419.953460132</v>
-      </c>
-      <c r="K58" t="n">
-        <v>4661397.427702951</v>
-      </c>
-      <c r="L58" t="n">
-        <v>4789410.412249979</v>
-      </c>
-      <c r="M58" t="n">
-        <v>5117387.45768536</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Бурнаковский</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>3215555.067371671</v>
-      </c>
-      <c r="C59" t="n">
-        <v>3123388.299835293</v>
-      </c>
-      <c r="D59" t="n">
-        <v>3066130.950980704</v>
-      </c>
-      <c r="E59" t="n">
-        <v>3463615.9087502</v>
-      </c>
-      <c r="F59" t="n">
-        <v>3333674.83772207</v>
-      </c>
-      <c r="G59" t="n">
-        <v>3230557.306743558</v>
-      </c>
-      <c r="H59" t="n">
-        <v>3163364.428557178</v>
-      </c>
-      <c r="I59" t="n">
-        <v>3551834.969786264</v>
-      </c>
-      <c r="J59" t="n">
-        <v>3413715.199581635</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3303177.20828605</v>
-      </c>
-      <c r="L59" t="n">
-        <v>3229251.813090672</v>
-      </c>
-      <c r="M59" t="n">
-        <v>3611614.00209636</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>Магазин НН Ларина</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>3895595.139026867</v>
-      </c>
-      <c r="C60" t="n">
-        <v>3894586.760563797</v>
-      </c>
-      <c r="D60" t="n">
-        <v>3921440.535218376</v>
-      </c>
-      <c r="E60" t="n">
-        <v>3960610.888161915</v>
-      </c>
-      <c r="F60" t="n">
-        <v>3914598.823354116</v>
-      </c>
-      <c r="G60" t="n">
-        <v>3912314.030813994</v>
-      </c>
-      <c r="H60" t="n">
-        <v>3937977.123866763</v>
-      </c>
-      <c r="I60" t="n">
-        <v>3976036.769319389</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3928988.599537349</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3925737.293737502</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3950498.791001765</v>
-      </c>
-      <c r="M60" t="n">
-        <v>3987717.397847137</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Богатырский</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>2743425.021719135</v>
-      </c>
-      <c r="C61" t="n">
-        <v>2862513.31012396</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2849401.239836699</v>
-      </c>
-      <c r="E61" t="n">
-        <v>3182624.456027607</v>
-      </c>
-      <c r="F61" t="n">
-        <v>2743906.148379866</v>
-      </c>
-      <c r="G61" t="n">
-        <v>2862925.014489487</v>
-      </c>
-      <c r="H61" t="n">
-        <v>2849753.538926375</v>
-      </c>
-      <c r="I61" t="n">
-        <v>3182925.92149404</v>
-      </c>
-      <c r="J61" t="n">
-        <v>2744164.11506248</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2863145.758875657</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2849942.431862205</v>
-      </c>
-      <c r="M61" t="n">
-        <v>3183087.558860342</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Софийская</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>5623827.86015182</v>
-      </c>
-      <c r="C62" t="n">
-        <v>5950899.754568844</v>
-      </c>
-      <c r="D62" t="n">
-        <v>6258110.701463746</v>
-      </c>
-      <c r="E62" t="n">
-        <v>5605665.599743957</v>
-      </c>
-      <c r="F62" t="n">
-        <v>5624445.960268083</v>
-      </c>
-      <c r="G62" t="n">
-        <v>5951412.446507976</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6258535.961090035</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5606018.337393894</v>
-      </c>
-      <c r="J62" t="n">
-        <v>5624738.543532497</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5951655.133861114</v>
-      </c>
-      <c r="L62" t="n">
-        <v>6258737.261569373</v>
-      </c>
-      <c r="M62" t="n">
-        <v>5606185.308941682</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Магазин СПб Энергетиков</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3022612.75645091</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2878448.827996051</v>
-      </c>
-      <c r="D63" t="n">
-        <v>2604365.517141329</v>
-      </c>
-      <c r="E63" t="n">
-        <v>3190874.524586963</v>
-      </c>
-      <c r="F63" t="n">
-        <v>3025049.262639226</v>
-      </c>
-      <c r="G63" t="n">
-        <v>2880647.329811316</v>
-      </c>
-      <c r="H63" t="n">
-        <v>2606349.263480616</v>
-      </c>
-      <c r="I63" t="n">
-        <v>3192664.493333548</v>
-      </c>
-      <c r="J63" t="n">
-        <v>3026664.382501226</v>
-      </c>
-      <c r="K63" t="n">
-        <v>2882104.680490541</v>
-      </c>
-      <c r="L63" t="n">
-        <v>2607664.256288399</v>
-      </c>
-      <c r="M63" t="n">
-        <v>3193851.034163543</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>2325311.082753012</v>
-      </c>
-      <c r="C64" t="n">
-        <v>2280412.666355511</v>
-      </c>
-      <c r="D64" t="n">
-        <v>2194085.601300454</v>
-      </c>
-      <c r="E64" t="n">
-        <v>2036713.329532086</v>
-      </c>
-      <c r="F64" t="n">
-        <v>2325517.756367416</v>
-      </c>
-      <c r="G64" t="n">
-        <v>2280578.005247034</v>
-      </c>
-      <c r="H64" t="n">
-        <v>2194217.872413672</v>
-      </c>
-      <c r="I64" t="n">
-        <v>2036819.146422661</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2325602.409879875</v>
-      </c>
-      <c r="K64" t="n">
-        <v>2280645.728057002</v>
-      </c>
-      <c r="L64" t="n">
-        <v>2194272.050661646</v>
-      </c>
-      <c r="M64" t="n">
-        <v>2036862.48902104</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Сургут 2</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>2341799.098447972</v>
-      </c>
-      <c r="C65" t="n">
-        <v>2372664.680152402</v>
-      </c>
-      <c r="D65" t="n">
-        <v>2403030.35115474</v>
-      </c>
-      <c r="E65" t="n">
-        <v>2432813.628603149</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2461952.453833704</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2490413.629078605</v>
-      </c>
-      <c r="H65" t="n">
-        <v>2518423.008552572</v>
-      </c>
-      <c r="I65" t="n">
-        <v>2545897.146568805</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2572773.04089585</v>
-      </c>
-      <c r="K65" t="n">
-        <v>2599016.569080247</v>
-      </c>
-      <c r="L65" t="n">
-        <v>2624852.679155075</v>
-      </c>
-      <c r="M65" t="n">
-        <v>2650197.037385629</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Магазин Хабаровск Индустриальный</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>5320362.406647257</v>
-      </c>
-      <c r="C66" t="n">
-        <v>5512322.92606303</v>
-      </c>
-      <c r="D66" t="n">
-        <v>5356193.640506834</v>
-      </c>
-      <c r="E66" t="n">
-        <v>5388863.027579515</v>
-      </c>
-      <c r="F66" t="n">
-        <v>5310122.899816978</v>
-      </c>
-      <c r="G66" t="n">
-        <v>5502946.744982042</v>
-      </c>
-      <c r="H66" t="n">
-        <v>5347607.995404912</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5381001.265826043</v>
-      </c>
-      <c r="J66" t="n">
-        <v>5302923.988478966</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5496354.797009355</v>
-      </c>
-      <c r="L66" t="n">
-        <v>5341571.835764334</v>
-      </c>
-      <c r="M66" t="n">
-        <v>5375474.034215976</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ Инфор</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>928999.9552852648</v>
-      </c>
-      <c r="C67" t="n">
-        <v>941010.1978064526</v>
-      </c>
-      <c r="D67" t="n">
-        <v>952830.097800383</v>
-      </c>
-      <c r="E67" t="n">
-        <v>964396.1989946924</v>
-      </c>
-      <c r="F67" t="n">
-        <v>975645.3604353905</v>
-      </c>
-      <c r="G67" t="n">
-        <v>986721.3599272872</v>
-      </c>
-      <c r="H67" t="n">
-        <v>997625.7284892417</v>
-      </c>
-      <c r="I67" t="n">
-        <v>1008294.635081445</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1018664.571488533</v>
-      </c>
-      <c r="K67" t="n">
-        <v>1028878.955609684</v>
-      </c>
-      <c r="L67" t="n">
-        <v>1038938.965766536</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1048780.425286094</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 4 (Маршал на Северном)</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>3038983.242631476</v>
-      </c>
-      <c r="C68" t="n">
-        <v>3092700.206425353</v>
-      </c>
-      <c r="D68" t="n">
-        <v>3145116.007519466</v>
-      </c>
-      <c r="E68" t="n">
-        <v>3196733.95199294</v>
-      </c>
-      <c r="F68" t="n">
-        <v>3247024.997067746</v>
-      </c>
-      <c r="G68" t="n">
-        <v>3296581.106565405</v>
-      </c>
-      <c r="H68" t="n">
-        <v>3344919.270833376</v>
-      </c>
-      <c r="I68" t="n">
-        <v>3392541.131593699</v>
-      </c>
-      <c r="J68" t="n">
-        <v>3438916.014998557</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3484634.286421227</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3529211.369730039</v>
-      </c>
-      <c r="M68" t="n">
-        <v>3573147.371497627</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>ПВЗ СПб 5 (Маршал на Жукова)</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>2803431.522482383</v>
-      </c>
-      <c r="C69" t="n">
-        <v>2828693.287014637</v>
-      </c>
-      <c r="D69" t="n">
-        <v>2853180.072798901</v>
-      </c>
-      <c r="E69" t="n">
-        <v>2877582.440823038</v>
-      </c>
-      <c r="F69" t="n">
-        <v>2901184.065121285</v>
-      </c>
-      <c r="G69" t="n">
-        <v>2924477.921878407</v>
-      </c>
-      <c r="H69" t="n">
-        <v>2947036.416872498</v>
-      </c>
-      <c r="I69" t="n">
-        <v>2969549.31354109</v>
-      </c>
-      <c r="J69" t="n">
-        <v>2991299.504423993</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3012779.199944222</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3033560.05553407</v>
-      </c>
-      <c r="M69" t="n">
-        <v>3054331.099390876</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ковригин  (Kz)</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>43554152.26681013</v>
-      </c>
-      <c r="C70" t="n">
-        <v>49965753.36023457</v>
-      </c>
-      <c r="D70" t="n">
-        <v>47209831.97847302</v>
-      </c>
-      <c r="E70" t="n">
-        <v>58429179.77499212</v>
-      </c>
-      <c r="F70" t="n">
-        <v>56556151.81932074</v>
-      </c>
-      <c r="G70" t="n">
-        <v>61537409.77961081</v>
-      </c>
-      <c r="H70" t="n">
-        <v>57508496.5605861</v>
-      </c>
-      <c r="I70" t="n">
-        <v>67594893.68240413</v>
-      </c>
-      <c r="J70" t="n">
-        <v>64713550.35994677</v>
-      </c>
-      <c r="K70" t="n">
-        <v>68797417.19668677</v>
-      </c>
-      <c r="L70" t="n">
-        <v>63969834.37968364</v>
-      </c>
-      <c r="M70" t="n">
-        <v>73345423.12598354</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Концевой</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>27525469.51312283</v>
-      </c>
-      <c r="C71" t="n">
-        <v>32435849.44628736</v>
-      </c>
-      <c r="D71" t="n">
-        <v>34980734.66511051</v>
-      </c>
-      <c r="E71" t="n">
-        <v>43402446.87411247</v>
-      </c>
-      <c r="F71" t="n">
-        <v>35397712.3077521</v>
-      </c>
-      <c r="G71" t="n">
-        <v>40150637.78094742</v>
-      </c>
-      <c r="H71" t="n">
-        <v>42541217.82109398</v>
-      </c>
-      <c r="I71" t="n">
-        <v>50811711.14324406</v>
-      </c>
-      <c r="J71" t="n">
-        <v>42658782.25225472</v>
-      </c>
-      <c r="K71" t="n">
-        <v>47266477.46810962</v>
-      </c>
-      <c r="L71" t="n">
-        <v>49514732.03324238</v>
-      </c>
-      <c r="M71" t="n">
-        <v>57645746.56351493</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мараев (АлРоса)</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>2193377.560375923</v>
-      </c>
-      <c r="C72" t="n">
-        <v>219121.0226305916</v>
-      </c>
-      <c r="D72" t="n">
-        <v>1641694.048701139</v>
-      </c>
-      <c r="E72" t="n">
-        <v>738461.1425117183</v>
-      </c>
-      <c r="F72" t="n">
-        <v>2196900.946222708</v>
-      </c>
-      <c r="G72" t="n">
-        <v>222426.6275419528</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1644795.333744895</v>
-      </c>
-      <c r="I72" t="n">
-        <v>741370.7367253423</v>
-      </c>
-      <c r="J72" t="n">
-        <v>2199630.698041232</v>
-      </c>
-      <c r="K72" t="n">
-        <v>224987.6530471055</v>
-      </c>
-      <c r="L72" t="n">
-        <v>1647198.061931954</v>
-      </c>
-      <c r="M72" t="n">
-        <v>743624.951972036</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Мищенко (МетИнв)</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>12022365.16007265</v>
-      </c>
-      <c r="C73" t="n">
-        <v>12340409.25178652</v>
-      </c>
-      <c r="D73" t="n">
-        <v>12651381.96277778</v>
-      </c>
-      <c r="E73" t="n">
-        <v>12956521.40574358</v>
-      </c>
-      <c r="F73" t="n">
-        <v>13254724.63176432</v>
-      </c>
-      <c r="G73" t="n">
-        <v>13548120.51703998</v>
-      </c>
-      <c r="H73" t="n">
-        <v>13834938.00606273</v>
-      </c>
-      <c r="I73" t="n">
-        <v>14116405.35143347</v>
-      </c>
-      <c r="J73" t="n">
-        <v>14391409.94134644</v>
-      </c>
-      <c r="K73" t="n">
-        <v>14662071.18238117</v>
-      </c>
-      <c r="L73" t="n">
-        <v>14926608.73880955</v>
-      </c>
-      <c r="M73" t="n">
-        <v>15186241.76862433</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Попов</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>16577172.34378926</v>
-      </c>
-      <c r="C74" t="n">
-        <v>20557073.92981919</v>
-      </c>
-      <c r="D74" t="n">
-        <v>21514643.55596694</v>
-      </c>
-      <c r="E74" t="n">
-        <v>21264987.81651368</v>
-      </c>
-      <c r="F74" t="n">
-        <v>16753972.7833383</v>
-      </c>
-      <c r="G74" t="n">
-        <v>20727300.41103555</v>
-      </c>
-      <c r="H74" t="n">
-        <v>21678540.5178818</v>
-      </c>
-      <c r="I74" t="n">
-        <v>21422790.60919893</v>
-      </c>
-      <c r="J74" t="n">
-        <v>16905908.0058606</v>
-      </c>
-      <c r="K74" t="n">
-        <v>20873586.23684436</v>
-      </c>
-      <c r="L74" t="n">
-        <v>21819387.00809857</v>
-      </c>
-      <c r="M74" t="n">
-        <v>21558400.01425712</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Филиппов</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>31398067.21896718</v>
-      </c>
-      <c r="C75" t="n">
-        <v>32921514.35073738</v>
-      </c>
-      <c r="D75" t="n">
-        <v>33017316.744911</v>
-      </c>
-      <c r="E75" t="n">
-        <v>34213565.14890873</v>
-      </c>
-      <c r="F75" t="n">
-        <v>31564866.62347523</v>
-      </c>
-      <c r="G75" t="n">
-        <v>33076100.2757332</v>
-      </c>
-      <c r="H75" t="n">
-        <v>33160583.49263887</v>
-      </c>
-      <c r="I75" t="n">
-        <v>34346341.53851261</v>
-      </c>
-      <c r="J75" t="n">
-        <v>31687920.78583904</v>
-      </c>
-      <c r="K75" t="n">
-        <v>33190144.09723064</v>
-      </c>
-      <c r="L75" t="n">
-        <v>33266276.73350047</v>
-      </c>
-      <c r="M75" t="n">
-        <v>34444295.6496354</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Шугай (Русал)</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>20720340.83150188</v>
-      </c>
-      <c r="C76" t="n">
-        <v>21234706.47876016</v>
-      </c>
-      <c r="D76" t="n">
-        <v>21739382.04154318</v>
-      </c>
-      <c r="E76" t="n">
-        <v>22230994.52868221</v>
-      </c>
-      <c r="F76" t="n">
-        <v>22713052.4474457</v>
-      </c>
-      <c r="G76" t="n">
-        <v>23186823.2552123</v>
-      </c>
-      <c r="H76" t="n">
-        <v>23651730.96268952</v>
-      </c>
-      <c r="I76" t="n">
-        <v>24104385.7316696</v>
-      </c>
-      <c r="J76" t="n">
-        <v>24548279.56558413</v>
-      </c>
-      <c r="K76" t="n">
-        <v>24984663.75418543</v>
-      </c>
-      <c r="L76" t="n">
-        <v>25412946.46991597</v>
-      </c>
-      <c r="M76" t="n">
-        <v>25829722.35895474</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Отдел Ясиновер (УГМК)</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>23065639.74022279</v>
-      </c>
-      <c r="C77" t="n">
-        <v>25331494.88393145</v>
-      </c>
-      <c r="D77" t="n">
-        <v>25251381.33185817</v>
-      </c>
-      <c r="E77" t="n">
-        <v>26184863.00686809</v>
-      </c>
-      <c r="F77" t="n">
-        <v>26843161.41122612</v>
-      </c>
-      <c r="G77" t="n">
-        <v>29033460.07497902</v>
-      </c>
-      <c r="H77" t="n">
-        <v>28879301.2934895</v>
-      </c>
-      <c r="I77" t="n">
-        <v>29740218.76219288</v>
-      </c>
-      <c r="J77" t="n">
-        <v>30327404.36052128</v>
-      </c>
-      <c r="K77" t="n">
-        <v>32448012.58819272</v>
-      </c>
-      <c r="L77" t="n">
-        <v>32225557.2908942</v>
-      </c>
-      <c r="M77" t="n">
-        <v>33019544.2834244</v>
+        <v>3434846.940596832</v>
       </c>
     </row>
   </sheetData>
